--- a/DataSheets/outline.xlsx
+++ b/DataSheets/outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47776C3B-A761-4E29-B184-4C7C1EE05449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074A119E-FCB1-43C2-8101-3D173977624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{388B4F98-2742-4C8B-82D7-16F67AA99DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{388B4F98-2742-4C8B-82D7-16F67AA99DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t>SectionID</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>syllabus24</t>
+  </si>
+  <si>
+    <t>ROOMNO</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,598 +684,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34187C24-AAE5-4E2C-9C2F-E14889DBC99C}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" style="1"/>
-    <col min="3" max="3" width="41.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="30.42578125" style="1"/>
-    <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="30.42578125" style="1"/>
+    <col min="1" max="1" width="30.42578125" style="1"/>
+    <col min="2" max="2" width="30.42578125" style="2"/>
+    <col min="3" max="4" width="41.42578125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="30.42578125" style="2"/>
+    <col min="8" max="8" width="36.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="30.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>5013</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11002</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>6009</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11004</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>7005</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11005</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>8001</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11057</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>8997</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11058</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>9993</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11060</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>10989</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11061</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>11985</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11062</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>12981</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11063</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>13977</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11064</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>14973</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11065</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>15969</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11113</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>16965</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11114</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="2">
+        <v>17961</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11116</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="2">
+        <v>18957</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11117</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2">
+        <v>19953</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11118</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="2">
+        <v>20949</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11119</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="2">
+        <v>21945</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11120</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="2">
+        <v>22941</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11121</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2">
+        <v>23937</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11122</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>24933</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11123</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2">
+        <v>25929</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11124</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="2">
+        <v>26925</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11125</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>27921</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
     <sortCondition ref="A1:A25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
